--- a/easypoi-test/src/main/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
+++ b/easypoi-test/src/main/java/org/jeecgframework/poi/test/excel/doc/foreach.xlsx
@@ -10,18 +10,53 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金性质</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>申请金额</t>
+  </si>
+  <si>
+    <t>核定金额</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -29,67 +64,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金性质</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>申请金额</t>
-  </si>
-  <si>
-    <t>!foreach||maplist{{id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach||entitylist{{accountType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amountApplied}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approvedAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核定金额</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
+    <t>三目运算测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1 = 1 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sex == 1 ? 男 : 女}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n:t.approvedAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.amountApplied}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe: entitylist t.accountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: maplist t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{le:(letest) = 9 ? 小明 : 小红 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(fntest;####.00)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fd:(fdtest;yyyy-mm-dd)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '2')}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!if:('1' == '1')}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,12 +168,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,101 +571,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
